--- a/Catalogs/CatalogoOXXO.xlsx
+++ b/Catalogs/CatalogoOXXO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="38160" windowHeight="21100"/>
+    <workbookView xWindow="12500" yWindow="3140" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gz" sheetId="2" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>BRAND_CONDITION</t>
   </si>
   <si>
-    <t>TOP LINE SOG (5 SOG)</t>
-  </si>
-  <si>
     <t>Secondary_Source_of_Growth</t>
   </si>
   <si>
@@ -741,15 +738,25 @@
   </si>
   <si>
     <t>LATA D2</t>
+  </si>
+  <si>
+    <t>TOP LINE SOG (5 SOGS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -854,126 +861,129 @@
   </borders>
   <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1368,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="H14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1454,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1506,11 +1516,11 @@
       <c r="O1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1518,16 +1528,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" t="str">
         <f>UPPER(E2)</f>
@@ -1546,28 +1556,28 @@
         <v>ALTO</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
         <v>74</v>
       </c>
-      <c r="N2" t="s">
-        <v>75</v>
-      </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1575,16 +1585,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F6" si="0">UPPER(E3)</f>
@@ -1603,28 +1613,28 @@
         <v>ALTO</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>74</v>
       </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1632,16 +1642,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1660,28 +1670,28 @@
         <v>REGULAR</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1689,16 +1699,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1717,28 +1727,28 @@
         <v>PREMIUM</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
       </c>
       <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
         <v>77</v>
       </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
       <c r="P5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" t="s">
         <v>80</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1746,16 +1756,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1774,28 +1784,28 @@
         <v>BAJO</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
         <v>71</v>
-      </c>
-      <c r="L6" t="s">
-        <v>72</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
         <v>79</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>80</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1831,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15">
       <c r="A1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1833,42 +1843,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1877,7 +1887,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1886,36 +1896,36 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1924,7 +1934,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1933,36 +1943,36 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1971,7 +1981,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1980,36 +1990,36 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -2018,7 +2028,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -2027,36 +2037,36 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2065,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -2074,36 +2084,36 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -2112,7 +2122,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -2121,36 +2131,36 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -2159,7 +2169,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -2168,36 +2178,36 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -2206,7 +2216,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -2215,36 +2225,36 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -2253,7 +2263,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2262,36 +2272,36 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2300,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -2309,36 +2319,36 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -2347,7 +2357,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -2356,36 +2366,36 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -2394,7 +2404,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -2403,36 +2413,36 @@
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -2441,7 +2451,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -2450,36 +2460,36 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -2488,7 +2498,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -2497,36 +2507,36 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2535,7 +2545,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -2544,36 +2554,36 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -2582,7 +2592,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
@@ -2591,36 +2601,36 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -2629,7 +2639,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -2638,36 +2648,36 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2676,7 +2686,7 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -2685,36 +2695,36 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -2723,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -2732,36 +2742,36 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L20" t="s">
         <v>214</v>
       </c>
-      <c r="L20" t="s">
-        <v>215</v>
-      </c>
       <c r="M20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2770,7 +2780,7 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -2779,36 +2789,36 @@
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
         <v>214</v>
       </c>
-      <c r="L21" t="s">
-        <v>215</v>
-      </c>
       <c r="M21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -2817,7 +2827,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -2826,36 +2836,36 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
         <v>214</v>
       </c>
-      <c r="L22" t="s">
-        <v>215</v>
-      </c>
       <c r="M22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -2864,7 +2874,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -2873,36 +2883,36 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
         <v>214</v>
       </c>
-      <c r="L23" t="s">
-        <v>215</v>
-      </c>
       <c r="M23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -2911,7 +2921,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
@@ -2920,36 +2930,36 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
         <v>214</v>
       </c>
-      <c r="L24" t="s">
-        <v>215</v>
-      </c>
       <c r="M24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -2958,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
@@ -2967,36 +2977,36 @@
         <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
         <v>214</v>
       </c>
-      <c r="L25" t="s">
-        <v>215</v>
-      </c>
       <c r="M25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -3005,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
@@ -3014,36 +3024,36 @@
         <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
         <v>214</v>
       </c>
-      <c r="L26" t="s">
-        <v>215</v>
-      </c>
       <c r="M26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -3052,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -3061,36 +3071,36 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
         <v>214</v>
       </c>
-      <c r="L27" t="s">
-        <v>215</v>
-      </c>
       <c r="M27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -3099,7 +3109,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -3108,36 +3118,36 @@
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
         <v>214</v>
       </c>
-      <c r="L28" t="s">
-        <v>215</v>
-      </c>
       <c r="M28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -3146,7 +3156,7 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -3155,36 +3165,36 @@
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
         <v>208</v>
       </c>
-      <c r="J29" t="s">
-        <v>209</v>
-      </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -3193,7 +3203,7 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
@@ -3202,36 +3212,36 @@
         <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
         <v>208</v>
       </c>
-      <c r="J30" t="s">
-        <v>209</v>
-      </c>
       <c r="K30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -3240,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
@@ -3249,36 +3259,36 @@
         <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
         <v>208</v>
       </c>
-      <c r="J31" t="s">
-        <v>209</v>
-      </c>
       <c r="K31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
@@ -3287,7 +3297,7 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -3296,36 +3306,36 @@
         <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
         <v>208</v>
       </c>
-      <c r="J32" t="s">
-        <v>209</v>
-      </c>
       <c r="K32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -3334,7 +3344,7 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -3343,36 +3353,36 @@
         <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
         <v>208</v>
       </c>
-      <c r="J33" t="s">
-        <v>209</v>
-      </c>
       <c r="K33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -3381,7 +3391,7 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
         <v>24</v>
@@ -3390,36 +3400,36 @@
         <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" t="s">
         <v>208</v>
       </c>
-      <c r="J34" t="s">
-        <v>209</v>
-      </c>
       <c r="K34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -3428,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -3437,36 +3447,36 @@
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" t="s">
         <v>208</v>
       </c>
-      <c r="J35" t="s">
-        <v>209</v>
-      </c>
       <c r="K35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -3475,7 +3485,7 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
@@ -3484,36 +3494,36 @@
         <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
+        <v>207</v>
+      </c>
+      <c r="J36" t="s">
         <v>208</v>
       </c>
-      <c r="J36" t="s">
-        <v>209</v>
-      </c>
       <c r="K36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -3522,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
         <v>24</v>
@@ -3531,36 +3541,36 @@
         <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="s">
         <v>208</v>
       </c>
-      <c r="J37" t="s">
-        <v>209</v>
-      </c>
       <c r="K37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -3569,7 +3579,7 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
@@ -3578,36 +3588,36 @@
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -3616,7 +3626,7 @@
         <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
         <v>24</v>
@@ -3625,36 +3635,36 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -3663,7 +3673,7 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
@@ -3672,36 +3682,36 @@
         <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -3710,7 +3720,7 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
@@ -3719,36 +3729,36 @@
         <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -3757,7 +3767,7 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -3766,36 +3776,36 @@
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -3804,7 +3814,7 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
@@ -3813,36 +3823,36 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -3851,7 +3861,7 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
@@ -3860,36 +3870,36 @@
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -3898,7 +3908,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
         <v>25</v>
@@ -3907,36 +3917,36 @@
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -3945,7 +3955,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
         <v>24</v>
@@ -3954,36 +3964,36 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K46" t="s">
+        <v>213</v>
+      </c>
+      <c r="L46" t="s">
         <v>214</v>
       </c>
-      <c r="L46" t="s">
-        <v>215</v>
-      </c>
       <c r="M46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -3992,7 +4002,7 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -4001,36 +4011,36 @@
         <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L47" t="s">
         <v>214</v>
       </c>
-      <c r="L47" t="s">
-        <v>215</v>
-      </c>
       <c r="M47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -4039,7 +4049,7 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -4048,36 +4058,36 @@
         <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K48" t="s">
+        <v>213</v>
+      </c>
+      <c r="L48" t="s">
         <v>214</v>
       </c>
-      <c r="L48" t="s">
-        <v>215</v>
-      </c>
       <c r="M48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -4086,7 +4096,7 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
         <v>24</v>
@@ -4095,36 +4105,36 @@
         <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s">
+        <v>213</v>
+      </c>
+      <c r="L49" t="s">
         <v>214</v>
       </c>
-      <c r="L49" t="s">
-        <v>215</v>
-      </c>
       <c r="M49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -4133,7 +4143,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
         <v>23</v>
@@ -4142,36 +4152,36 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K50" t="s">
+        <v>213</v>
+      </c>
+      <c r="L50" t="s">
         <v>214</v>
       </c>
-      <c r="L50" t="s">
-        <v>215</v>
-      </c>
       <c r="M50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -4180,7 +4190,7 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
         <v>24</v>
@@ -4189,36 +4199,36 @@
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L51" t="s">
         <v>214</v>
       </c>
-      <c r="L51" t="s">
-        <v>215</v>
-      </c>
       <c r="M51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -4227,7 +4237,7 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
         <v>25</v>
@@ -4236,36 +4246,36 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K52" t="s">
+        <v>213</v>
+      </c>
+      <c r="L52" t="s">
         <v>214</v>
       </c>
-      <c r="L52" t="s">
-        <v>215</v>
-      </c>
       <c r="M52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
@@ -4274,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -4283,36 +4293,36 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L53" t="s">
         <v>214</v>
       </c>
-      <c r="L53" t="s">
-        <v>215</v>
-      </c>
       <c r="M53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -4321,7 +4331,7 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
         <v>24</v>
@@ -4330,36 +4340,36 @@
         <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K54" t="s">
+        <v>213</v>
+      </c>
+      <c r="L54" t="s">
         <v>214</v>
       </c>
-      <c r="L54" t="s">
-        <v>215</v>
-      </c>
       <c r="M54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -4368,7 +4378,7 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
         <v>23</v>
@@ -4377,36 +4387,36 @@
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s">
+        <v>213</v>
+      </c>
+      <c r="L55" t="s">
         <v>214</v>
       </c>
-      <c r="L55" t="s">
-        <v>215</v>
-      </c>
       <c r="M55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -4415,7 +4425,7 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
@@ -4424,36 +4434,36 @@
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L56" t="s">
+        <v>215</v>
+      </c>
+      <c r="M56" t="s">
         <v>216</v>
       </c>
-      <c r="M56" t="s">
-        <v>217</v>
-      </c>
       <c r="N56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -4462,7 +4472,7 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" t="s">
         <v>23</v>
@@ -4471,36 +4481,36 @@
         <v>27</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s">
+        <v>215</v>
+      </c>
+      <c r="M57" t="s">
         <v>216</v>
       </c>
-      <c r="M57" t="s">
-        <v>217</v>
-      </c>
       <c r="N57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -4509,7 +4519,7 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s">
         <v>24</v>
@@ -4518,36 +4528,36 @@
         <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L58" t="s">
+        <v>215</v>
+      </c>
+      <c r="M58" t="s">
         <v>216</v>
       </c>
-      <c r="M58" t="s">
-        <v>217</v>
-      </c>
       <c r="N58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -4556,7 +4566,7 @@
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
         <v>24</v>
@@ -4565,36 +4575,36 @@
         <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L59" t="s">
+        <v>215</v>
+      </c>
+      <c r="M59" t="s">
         <v>216</v>
       </c>
-      <c r="M59" t="s">
-        <v>217</v>
-      </c>
       <c r="N59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -4603,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
@@ -4612,36 +4622,36 @@
         <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L60" t="s">
+        <v>215</v>
+      </c>
+      <c r="M60" t="s">
         <v>216</v>
       </c>
-      <c r="M60" t="s">
-        <v>217</v>
-      </c>
       <c r="N60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -4650,7 +4660,7 @@
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -4659,36 +4669,36 @@
         <v>27</v>
       </c>
       <c r="G61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s">
+        <v>215</v>
+      </c>
+      <c r="M61" t="s">
         <v>216</v>
       </c>
-      <c r="M61" t="s">
-        <v>217</v>
-      </c>
       <c r="N61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -4697,7 +4707,7 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
         <v>25</v>
@@ -4706,36 +4716,36 @@
         <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s">
+        <v>215</v>
+      </c>
+      <c r="M62" t="s">
         <v>216</v>
       </c>
-      <c r="M62" t="s">
-        <v>217</v>
-      </c>
       <c r="N62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -4744,7 +4754,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
         <v>24</v>
@@ -4753,36 +4763,36 @@
         <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L63" t="s">
+        <v>215</v>
+      </c>
+      <c r="M63" t="s">
         <v>216</v>
       </c>
-      <c r="M63" t="s">
-        <v>217</v>
-      </c>
       <c r="N63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -4791,7 +4801,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
@@ -4800,36 +4810,36 @@
         <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L64" t="s">
+        <v>215</v>
+      </c>
+      <c r="M64" t="s">
         <v>216</v>
       </c>
-      <c r="M64" t="s">
-        <v>217</v>
-      </c>
       <c r="N64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -4838,7 +4848,7 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
         <v>23</v>
@@ -4847,36 +4857,36 @@
         <v>26</v>
       </c>
       <c r="G65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
@@ -4885,7 +4895,7 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
         <v>25</v>
@@ -4894,36 +4904,36 @@
         <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
@@ -4932,7 +4942,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
         <v>24</v>
@@ -4941,36 +4951,36 @@
         <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -4979,7 +4989,7 @@
         <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
@@ -4988,36 +4998,36 @@
         <v>26</v>
       </c>
       <c r="G68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -5026,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E69" t="s">
         <v>24</v>
@@ -5035,36 +5045,36 @@
         <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -5073,7 +5083,7 @@
         <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
@@ -5082,36 +5092,36 @@
         <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -5120,7 +5130,7 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E71" t="s">
         <v>24</v>
@@ -5129,36 +5139,36 @@
         <v>26</v>
       </c>
       <c r="G71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -5167,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
         <v>23</v>
@@ -5176,36 +5186,36 @@
         <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -5214,7 +5224,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -5223,36 +5233,36 @@
         <v>26</v>
       </c>
       <c r="G73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -5261,7 +5271,7 @@
         <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -5270,36 +5280,36 @@
         <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N74" t="s">
+        <v>232</v>
+      </c>
+      <c r="O74" t="s">
         <v>233</v>
-      </c>
-      <c r="O74" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -5308,7 +5318,7 @@
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
         <v>24</v>
@@ -5317,36 +5327,36 @@
         <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N75" t="s">
+        <v>232</v>
+      </c>
+      <c r="O75" t="s">
         <v>233</v>
-      </c>
-      <c r="O75" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -5355,7 +5365,7 @@
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
         <v>25</v>
@@ -5364,36 +5374,36 @@
         <v>28</v>
       </c>
       <c r="G76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N76" t="s">
+        <v>232</v>
+      </c>
+      <c r="O76" t="s">
         <v>233</v>
-      </c>
-      <c r="O76" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -5402,7 +5412,7 @@
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>
@@ -5411,36 +5421,36 @@
         <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N77" t="s">
+        <v>232</v>
+      </c>
+      <c r="O77" t="s">
         <v>233</v>
-      </c>
-      <c r="O77" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -5449,7 +5459,7 @@
         <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
         <v>23</v>
@@ -5458,36 +5468,36 @@
         <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N78" t="s">
+        <v>232</v>
+      </c>
+      <c r="O78" t="s">
         <v>233</v>
-      </c>
-      <c r="O78" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -5496,7 +5506,7 @@
         <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
         <v>24</v>
@@ -5505,36 +5515,36 @@
         <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N79" t="s">
+        <v>232</v>
+      </c>
+      <c r="O79" t="s">
         <v>233</v>
-      </c>
-      <c r="O79" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -5543,7 +5553,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E80" t="s">
         <v>23</v>
@@ -5552,36 +5562,36 @@
         <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N80" t="s">
+        <v>232</v>
+      </c>
+      <c r="O80" t="s">
         <v>233</v>
-      </c>
-      <c r="O80" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -5590,7 +5600,7 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E81" t="s">
         <v>24</v>
@@ -5599,36 +5609,36 @@
         <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N81" t="s">
+        <v>232</v>
+      </c>
+      <c r="O81" t="s">
         <v>233</v>
-      </c>
-      <c r="O81" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -5637,7 +5647,7 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
         <v>25</v>
@@ -5646,36 +5656,36 @@
         <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N82" t="s">
+        <v>232</v>
+      </c>
+      <c r="O82" t="s">
         <v>233</v>
-      </c>
-      <c r="O82" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -5684,7 +5694,7 @@
         <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s">
         <v>24</v>
@@ -5693,36 +5703,36 @@
         <v>27</v>
       </c>
       <c r="G83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L83" t="s">
+        <v>215</v>
+      </c>
+      <c r="M83" t="s">
         <v>216</v>
       </c>
-      <c r="M83" t="s">
-        <v>217</v>
-      </c>
       <c r="N83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
@@ -5731,7 +5741,7 @@
         <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
         <v>23</v>
@@ -5740,36 +5750,36 @@
         <v>27</v>
       </c>
       <c r="G84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L84" t="s">
+        <v>215</v>
+      </c>
+      <c r="M84" t="s">
         <v>216</v>
       </c>
-      <c r="M84" t="s">
-        <v>217</v>
-      </c>
       <c r="N84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -5778,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
         <v>25</v>
@@ -5787,36 +5797,36 @@
         <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L85" t="s">
+        <v>215</v>
+      </c>
+      <c r="M85" t="s">
         <v>216</v>
       </c>
-      <c r="M85" t="s">
-        <v>217</v>
-      </c>
       <c r="N85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -5825,7 +5835,7 @@
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
         <v>23</v>
@@ -5834,36 +5844,36 @@
         <v>27</v>
       </c>
       <c r="G86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L86" t="s">
+        <v>215</v>
+      </c>
+      <c r="M86" t="s">
         <v>216</v>
       </c>
-      <c r="M86" t="s">
-        <v>217</v>
-      </c>
       <c r="N86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
@@ -5872,7 +5882,7 @@
         <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E87" t="s">
         <v>25</v>
@@ -5881,36 +5891,36 @@
         <v>27</v>
       </c>
       <c r="G87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L87" t="s">
+        <v>215</v>
+      </c>
+      <c r="M87" t="s">
         <v>216</v>
       </c>
-      <c r="M87" t="s">
-        <v>217</v>
-      </c>
       <c r="N87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
@@ -5919,7 +5929,7 @@
         <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E88" t="s">
         <v>24</v>
@@ -5928,36 +5938,36 @@
         <v>27</v>
       </c>
       <c r="G88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L88" t="s">
+        <v>215</v>
+      </c>
+      <c r="M88" t="s">
         <v>216</v>
       </c>
-      <c r="M88" t="s">
-        <v>217</v>
-      </c>
       <c r="N88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
@@ -5966,7 +5976,7 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
         <v>24</v>
@@ -5975,36 +5985,36 @@
         <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L89" t="s">
+        <v>215</v>
+      </c>
+      <c r="M89" t="s">
         <v>216</v>
       </c>
-      <c r="M89" t="s">
-        <v>217</v>
-      </c>
       <c r="N89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -6013,7 +6023,7 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E90" t="s">
         <v>25</v>
@@ -6022,36 +6032,36 @@
         <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L90" t="s">
+        <v>215</v>
+      </c>
+      <c r="M90" t="s">
         <v>216</v>
       </c>
-      <c r="M90" t="s">
-        <v>217</v>
-      </c>
       <c r="N90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -6060,7 +6070,7 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E91" t="s">
         <v>23</v>
@@ -6069,36 +6079,36 @@
         <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J91" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L91" t="s">
+        <v>215</v>
+      </c>
+      <c r="M91" t="s">
         <v>216</v>
       </c>
-      <c r="M91" t="s">
-        <v>217</v>
-      </c>
       <c r="N91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -6107,7 +6117,7 @@
         <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E92" t="s">
         <v>23</v>
@@ -6116,36 +6126,36 @@
         <v>26</v>
       </c>
       <c r="G92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J92" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O92" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
@@ -6154,7 +6164,7 @@
         <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E93" t="s">
         <v>25</v>
@@ -6163,36 +6173,36 @@
         <v>26</v>
       </c>
       <c r="G93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M93" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -6201,7 +6211,7 @@
         <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" t="s">
         <v>24</v>
@@ -6210,36 +6220,36 @@
         <v>26</v>
       </c>
       <c r="G94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
@@ -6248,7 +6258,7 @@
         <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
         <v>23</v>
@@ -6257,36 +6267,36 @@
         <v>26</v>
       </c>
       <c r="G95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O95" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
@@ -6295,7 +6305,7 @@
         <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E96" t="s">
         <v>25</v>
@@ -6304,36 +6314,36 @@
         <v>26</v>
       </c>
       <c r="G96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J96" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -6342,7 +6352,7 @@
         <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" t="s">
         <v>24</v>
@@ -6351,36 +6361,36 @@
         <v>26</v>
       </c>
       <c r="G97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
@@ -6389,7 +6399,7 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
         <v>23</v>
@@ -6398,36 +6408,36 @@
         <v>26</v>
       </c>
       <c r="G98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -6436,7 +6446,7 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
         <v>25</v>
@@ -6445,36 +6455,36 @@
         <v>26</v>
       </c>
       <c r="G99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J99" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
@@ -6483,7 +6493,7 @@
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E100" t="s">
         <v>24</v>
@@ -6492,36 +6502,36 @@
         <v>26</v>
       </c>
       <c r="G100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
@@ -6530,7 +6540,7 @@
         <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E101" t="s">
         <v>24</v>
@@ -6539,36 +6549,36 @@
         <v>28</v>
       </c>
       <c r="G101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N101" t="s">
+        <v>232</v>
+      </c>
+      <c r="O101" t="s">
         <v>233</v>
-      </c>
-      <c r="O101" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
@@ -6577,7 +6587,7 @@
         <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
@@ -6586,36 +6596,36 @@
         <v>28</v>
       </c>
       <c r="G102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N102" t="s">
+        <v>232</v>
+      </c>
+      <c r="O102" t="s">
         <v>233</v>
-      </c>
-      <c r="O102" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
@@ -6624,7 +6634,7 @@
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E103" t="s">
         <v>25</v>
@@ -6633,36 +6643,36 @@
         <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I103" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N103" t="s">
+        <v>232</v>
+      </c>
+      <c r="O103" t="s">
         <v>233</v>
-      </c>
-      <c r="O103" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
@@ -6671,7 +6681,7 @@
         <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -6680,36 +6690,36 @@
         <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N104" t="s">
+        <v>232</v>
+      </c>
+      <c r="O104" t="s">
         <v>233</v>
-      </c>
-      <c r="O104" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
@@ -6718,7 +6728,7 @@
         <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E105" t="s">
         <v>24</v>
@@ -6727,36 +6737,36 @@
         <v>28</v>
       </c>
       <c r="G105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N105" t="s">
+        <v>232</v>
+      </c>
+      <c r="O105" t="s">
         <v>233</v>
-      </c>
-      <c r="O105" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
@@ -6765,7 +6775,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
@@ -6774,36 +6784,36 @@
         <v>28</v>
       </c>
       <c r="G106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N106" t="s">
+        <v>232</v>
+      </c>
+      <c r="O106" t="s">
         <v>233</v>
-      </c>
-      <c r="O106" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
@@ -6812,7 +6822,7 @@
         <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
@@ -6821,36 +6831,36 @@
         <v>28</v>
       </c>
       <c r="G107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L107" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N107" t="s">
+        <v>232</v>
+      </c>
+      <c r="O107" t="s">
         <v>233</v>
-      </c>
-      <c r="O107" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
@@ -6859,7 +6869,7 @@
         <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E108" t="s">
         <v>24</v>
@@ -6868,36 +6878,36 @@
         <v>28</v>
       </c>
       <c r="G108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N108" t="s">
+        <v>232</v>
+      </c>
+      <c r="O108" t="s">
         <v>233</v>
-      </c>
-      <c r="O108" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
@@ -6906,7 +6916,7 @@
         <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E109" t="s">
         <v>23</v>
@@ -6915,31 +6925,31 @@
         <v>28</v>
       </c>
       <c r="G109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N109" t="s">
+        <v>232</v>
+      </c>
+      <c r="O109" t="s">
         <v>233</v>
-      </c>
-      <c r="O109" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
